--- a/Datos/Datos IEET/Scraping Inventario/Descripciones Peces.xlsx
+++ b/Datos/Datos IEET/Scraping Inventario/Descripciones Peces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Es una especie de gran talla que puede alcanzar los 350 cm de longitud total y 300 Kg pudiendo vivir hasta un centenar de años. El cuerpo es alargado de sección pentagonal y con una aleta caudal heterocerca. No presenta escamas y el cuerpo está cubierto con pequeños dentículos y cinco filas de placas óseas (10 a 15 placas dorsales, 29 a 38 placas laterales y 10 a 12 placas ventrales). Presenta 4 barbillas y un hocico muy prominente. El dorso es marrón o gris oscuro más pálido sobre los costados y el vientre blanco.</t>
         </is>
       </c>
@@ -465,6 +475,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Especie de talla media que puede alcanzar los 830 mm de longitud total y 4 kg de peso. Su cuerpo es esbelto y fusiforme, comprimido lateralmente y ojos presentan párpados adiposos. Branquispinas numerosas (85 a 130) y más largas que los filamentos branquiales. Presentan una mancha postopercular. Escamas cicloideas grandes muy características. Línea lateral ausente. La línea media ventral forma una quilla más o menos patente.</t>
         </is>
       </c>
@@ -477,6 +492,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Alcanza tallas de 250 a 400 mm, pudiendo llegar hasta 550 mm, con pesos de hasta 2 kg. Cuerpo aplanado lateralmente, más pequeño que el de la especie anterior, aunque más robusto. En la parte lateral superior del cuerpo presenta manchas negras (de 5 a 10) que disminuyen de tamaño a lo largo del cuerpo. Las branquispinas son cortas y su número varía de 30 a 60. Se han reconocido algunas subespecies por el número de branquiespinas.</t>
         </is>
       </c>
@@ -489,6 +509,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Es un pez de pequeño tamaño que raramente alcanza los 100 mm. Cabeza pequeña con boca muy súpera. Pedúnculo caudal largo y estrecho. La aleta dorsal, situada posteriormente a las ventrales, tiene los primeros radios muy largos. Existe una quilla entre las aletas ventrales y la anal. Escamas muy pequeñas que no se encuentran bien imbricadas por lo que son caedizas, pudiéndose contar a lo largo de una línea longitudinal al cuerpo del orden de 59 a 71. La posesión de una línea lateral incompleta o ausente en alguno de los lados del cuerpo es muy característica de la especie. Coloración del cuerpo amarillenta o pardusca con el dorso y los laterales finamente moteados de negro. El número de branquispinas es de 82 a 130.</t>
         </is>
       </c>
@@ -501,6 +526,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Es una especie de tamaño medio que puede alcanzar los 150 cm de longitud total y 6 Kg de peso. Las anguilas se caracterizan externamente por la forma de su cuerpo, muy alargado y cilíndrico a excepción de la parte posterior que está comprimida lateralmente. No presentan aletas pelvianas, sin embargo las pectorales están bien desarrolladas. Las aletas dorsal, caudal y anal, forman una sola aleta continua que se inicia cerca de la cabeza. Piel recubierta de mucosa con pequeñas escamas alargadas hendidas en la piel. Coloración variable, ya que el dorso puede ofrecer tonalidades negruzcas, verdosas o amarillentas, mientras que la zona ventral es blanquecina o amarillenta. Según se acerca la fase madura toma unas tonalidades plateadas. Presentan una mandíbula inferior prominente con respecto a la superior. Ambas mandíbulas, así como el vómer están provistos de dientes finos. Poseen pequeñas aberturas branquiales, situadas bajo la aleta pectoral. Ojos pequeños y redondos que se hipertrofian al madurar sexualmente.</t>
         </is>
       </c>
@@ -513,6 +543,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Pez de pequeño tamaño que no alcanza los 50 mm de longitud total. Las hembras alcanzan tallas mayores que los machos. Aleta dorsal retrasada con respecto a la mitad del cuerpo. Boca súpera provista de dientes tricúspides. Las escamas son grandes existiendo de 20-26 escamas en la línea longitudinal media. Las aletas dorsal y anal tienen 9-1 1 radios ramificados. Los machos tienen el cuerpo atravesado por bandas verticales plateadas que se extienden a la aleta caudal. Las hembras presentan manchas oscuras que tienden a formar bandas.</t>
         </is>
       </c>
@@ -525,6 +560,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Pez de pequeño tamaño que no supera los 100 mm de longitud total. Dos aletas dorsales, la primera de ellas con 7-8 radios y la segunda con 11-13. Ojo muy grande que ocupa la mayor parte de la cabeza. Boca súpera provista de dientes débiles pero bien visibles. El pedúnculo caudal es largo y estrecho. Las escamas son grandes, presentando 43-45 escamas en la línea longitudinal media. La coloración es poco aparente, casi translúcida con una banda longitudinal plateada que recorre todo el cuerpo.</t>
         </is>
       </c>
@@ -537,6 +577,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>El lobo de río, es una especie de pequeño tamaño que no alcanza los 210 mm de longitud total y los 200 g de peso pudiendo vivir hasta los siete años y sobrepasar los 100 a 130 mm de longitud total. Como en las especies de la familia Cobitidae el cuerpo es alargado y cilíndrico, salvo en la región caudal donde se presenta más comprimido. La cabeza es alargada y su boca ínfera posee tres pares de barbillas. Sin embargo, a diferencia de las dos especies de la familia Cobitidae, carece de espina suborbitaria y no presenta manchas definidas sino que se distribuyen irregularmente por el cuerpo. Las aletas son pequeñas. Presentan dimorfismo sexual, ya que los machos tienen las aletas pectorales más largas y con tubérculos nupciales en época de reproducción Es una especie diploide con un número 2n=50.</t>
         </is>
       </c>
@@ -549,6 +594,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Especie de tamaño relativamente grande comparada con las otras especies de ciprínidos que habitan en la Península Ibérica, conociéndose ejemplares longitudes de hasta 1 m. Boca protráctil y en posición ínfera con un labio superior grueso y el inferior a menudo retraído, dejando ver el dentario. Dos pares de barbillas en la mandíbula superior, cortas en relación a la cabeza, no llegando el primer par al borde anterior del ojo y el segundo par al borde posterior. El último radio de la aleta dorsal tiene denticulaciones que en los adultos ocupan sólo una pequeña zona situada por debajo de la mitad del mismo. La aleta anal es pequeña, siendo más larga en la hembra, hecho relacionado con la forma de realizar la puesta. En la época de celo los machos presentan tubérculos nupciales en la región cefálica. La coloración varía mucho según los ríos y sobre todo según la fase de desarrollo en la que se encuentran. Los juveniles presentan manchas oscuras que desaparecen en los adultos.</t>
         </is>
       </c>
@@ -561,6 +611,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Es la especie dentro del género Barbus que puede alcanzar los mayores tamaños, conociéndose ejemplares que superan el metro de longitud total. Su cuerpo es alargado, sobre todo en la región caudal donde se estrecha considerablemente. Se diferencia de otras especies del mismo género presentes en la Península Ibérica por el notable alargamiento que experimenta la cabeza al crecer los individuos, hallándose el hocico muy desarrollado y siendo este muy prominente y algo cóncavo. Las barbillas son cortas con relación a la cabeza, no alcanzando las primeras el borde anterior del ojo, ni las segundas el borde posterior. El último radio sencillo de la aleta dorsal es muy robusto y fuertemente denticulado. Las hembras presentan una aleta anal más larga que los machos y alcanzan mayor tamaño. En la época de reproducción los machos muestran unos tubérculos nupciales muy acentuados en la parte anterior de la cabeza.</t>
         </is>
       </c>
@@ -573,6 +628,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Especie de gran tamaño, que puede alcanzar tallas máximas de hasta 800 mm de longitud total, aunque la mayoría no suele superar los 350 mm. El cuerpo es más alargado y esbelto que el de las especies que le son más próximas, es decir: B. bocagei, B. guiraonis y B. sclateri. La aleta dorsal en los ejemplares adultos no presenta denticulaciones en el último radio sencillo, mientras que pueden aparecer de forma excepcional en los ejemplares más jóvenes. La aleta dorsal se encuentra en la misma vertical que las aletas ventrales, siendo el perfil de la primera recto o ligeramente cóncavo. Las barbillas son largas con relación a la cabeza, alcanzando la primera el borde anterior del ojo y la segunda el borde posterior. Los labios en general son gruesos, presentando el inferior un lóbulo medio bien desarrollado. Los machos son más pequeños que las hembras y en época de reproducción muestran tubérculos nupciales muy desarrollados en la región anterior de la cabeza. El color del cuerpo es pardo verdoso y moteado en juveniles. En el Delta del Ebro, los machos viven entre 11 y 12 años, es decir, menos que las hembras que suelen vivir hasta los 16 años; edades que corresponden respectivamente a intervalos de talla de 380-400 mm y 420-460.</t>
         </is>
       </c>
@@ -585,6 +645,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Especie de gran tamaño que puede alcanzar los 600 mm de longitud total. El cuerpo es alargado y la cabeza pequeña. Los labios son gruesos aunque frecuentemente el inferior se retrae dejando ver el dentario. Las barbillas son largas, pero más cortas que en B. graellsii, no sobrepasando las anteriores el borde anterior del ojo, ni las posteriores el borde posterior del mismo. El último radio de la aleta dorsal, en los ejemplares adultos o bien no presenta denticulaciones o si las presenta son muy débiles. Durante la época de reproducción los machos presentan tubérculos nupciales muy desarrollados en la región cefálica.</t>
         </is>
       </c>
@@ -597,6 +662,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Este barbo es de pequeño tamaño y su longitud total no suele superar los 200 mm en el Ebro, ni alcanza los 300 mm en los demás ríos de las cuencas mediterráneas donde se halla presente. La cabeza es grande, con un hocico largo y ancho. Los labios son gruesos y el inferior tiene un lóbulo medio bien desarrollado. Los labios se retraen como ocurre en otras especies de barbos. Las barbillas son relativamente largas y gruesas, aunque las anteriores no alcanzan el borde anterior del ojo, dado el gran desarrollo cefálico, y las posteriores tampoco llegan al borde posterior del ojo. El último radio sencillo de la aleta dorsal presenta pequeñas denticulaciones en la mayoría de los ejemplares, careciendo de ellas algunos individuos adultos. La aleta anal es larga y el pedúnculo caudal corto y alto. Por este motivo la aleta anal suele alcanzar los primeros radios de la aleta caudal. La coloración, muy característica, presenta pequeñas manchas negras, mayores que las de B. meridionalis, aunque no afectan a todas las aletas ni son tan numerosas. A pesar de esto, se diferencia fácilmente porque la aleta anal, parte de la caudal y los radios de las pelvianas, se encuentran teñidos de rojo. Color que en la época de reproducción se vuelve más intenso y se acompaña de otros caracteres sexuales secundarios, como los tubérculos nupciales que exhibe el macho en la parte anterior de la cabeza.</t>
         </is>
       </c>
@@ -609,6 +679,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Barbo relativamente pequeño que en España raramente alcanza los 300 mm de longitud total y 200 g de peso. La cabeza es relativamente pequeña, mucho más que en B. haasi. Los labios son muy variables aunque normalmente son anchos, presentando un lóbulo medio algo visible. Las barbillas son cortas y finas. El último radio sencillo de la aleta dorsal no presenta denticulaciones. Las aletas son bajas y la dorsal presenta un perfil convexo. La coloración del cuerpo en los adultos es pardogrisacea y se encuentra profusamente moteado de manchas negras tanto en adultos como en juveniles. Este patrón de coloración es similar al que ostentan los individuos jóvenes de otras especies de barbos, prestándose a confusión. No se ha descrito la existencia de tubérculos nupciales en esta especie.</t>
         </is>
       </c>
@@ -621,6 +696,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Este barbo alcanza tallas similares a las de B. bocagei y B. sclateri. La talla máxima conocida es de unos 500 mm de longitud total. Su tamaño no difiere de forma significativa del de otras especies de barbos peninsulares, con la excepción de B. haasi y B. meridionalis. Los labios son finos y retraídos, dejando ver el inferior el dentario y el superior el maxilar. Presentan barbillas finas y cortas con relación a la cabeza. El último radio sencillo de la aleta dorsal se halla muy osificado y denticulado en toda su extensión como ocurre en B. comizo. Esta aleta es grande y presenta un perfil cóncavo. Al igual que en otros barbos ibéricos, la hembra tiene la aleta anal más larga que los machos, carácter que se piensa tiene relación con la práctica de excavar un surco para la realización de la puesta. Los machos en época de freza presentan tubérculos nupciales en la parte anterior de la cabeza.</t>
         </is>
       </c>
@@ -633,6 +713,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>El barbo gitano es una especie de gran tamaño que puede alcanzar alrededor de 400 mm de longitud total. Su cuerpo es robusto y el pedúnculo caudal es más corto y alto que en otras especies del género Barbus. Los labios son gruesos, aunque a veces el inferior se encuentra retraído, dejando ver el dentario. Tienen unas barbillas largas, sobrepasando la primera el borde anterior del ojo y la segunda el posterior, aunque también puede haber individuos con barbillas más cortas. El último radio sencillo de la aleta dorsal presenta denticulaciones de tamaño medio en casi toda su extensión, y son más pequeñas que en Barbus comizo y Barbus microcephalus. Tiene un menor número de escamas que otras especies del mismo género. La coloración es muy constante y en los ejemplares adultos existe un fuerte contraste entre la parte ventral clara y el dorso oscuro. En época de reproducción los machos desarrollan en la cabeza tubérculos nupciales grandes y llamativos, y se acentúa la diferencia de color entre el dorso y el vientre. Presentan una longevidad que no sobrepasa los 8 años de edad. Poseen una tasa de crecimiento baja, ya que durante el verano los individuos se ven aislados en pequeñas pozas debido a la sequía y los recursos alimentarlos decrecen. El período de crecimiento es largo (6 meses) al estar influido por la temperatura que es elevada en el sur de Españ.</t>
         </is>
       </c>
@@ -645,6 +730,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Es una especie de pequeño tamaño, de cabeza pequeña, boca subterminal, aleta dorsal de perfil convexo, con su origen situado en la misma vertical de la inserción de las aletas ventrales, línea lateral muy marcada y coloración oscura en el dorso y roja en la base de las aletas pares. La longitud estándar presenta valores en los ejemplares adultos comprendidos entre 47 y 104 mm. El número de escamas en la línea lateral oscila entre 36 y 48 siendo la media de 42. Presenta 7 radios ramificados en las aletas dorsal y anal aunque algunos individuos pueden tener 6 u 8 radios. El número de dientes faríngeos es de 4 a 6 siendo el más frecuente de 5 en cada lado. La edad máxima encontrada ha sido de 6 años para las hembras en el río Ucero.</t>
         </is>
       </c>
@@ -657,6 +747,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Ciprínido de tamaño medio que no suele sobrepasar los 300 mm de longitud total. Cuerpo alargado con la cabeza relativamente pequeña y boca situada en su parte inferior. El labio inferior es grueso y presenta una lámina córnea de forma arqueada, a diferencia de la boga de río cuya lámina córnea es recta. Pedúnculo caudal largo y estrecho. Las aletas son largas, la dorsal tiene 8 radios ramificados y la anal de 8 a 10. Las escamas son grandes y su número es de 44-53. El número de branquiespinas es de 16 a 23. El número de dientes faríngeos más frecuente es de 6-5 y raramente 5-5.</t>
         </is>
       </c>
@@ -669,6 +764,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Especie de talla media que no suele alcanzar los 500 mm de longitud total. Cuerpo alargado más que otras especies de ciprínidos. La abertura bucal es inferior y recta. El labio inferior es grueso y presenta una lámina córnea bien desarrollada. Las aletas dorsal y anal son largas frecuentemente con 8 radios ramificados y alguna vez con 9. Escamas pequeñas, en la línea lateral se cuentan entre 63 y 74. El número de dientes faríngeos es de 5-5 y el de branquiespinas de 12 a 24. El cuerpo suele estar pigmentado con pequeñas manchas negras muy marcadas en las poblaciones de los ríos de Galicia y Portugal.</t>
         </is>
       </c>
@@ -681,6 +781,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Especie de pequeño tamaño que no sobrepasa los 140 mm. Es muy parecida a la bermejuela de la que se diferencia por unas escamas más pequeñas. El número de escamas en la línea lateral oscila entre 52-66. La boca es subterminal y la coloración es oscura aunque pueden aparecer pequeñas manchas negras repartidas por el cuerpo. El numero de radios ramificados en las aletas anal y dorsal es de 7.</t>
         </is>
       </c>
@@ -693,6 +798,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Ciprínido de tamaño medio que no suele sobrepasar los 300 mm de longitud total. Cuerpo alargado con la cabeza relativamente pequeña y boca situada en su parte inferior. El labio inferior es grueso y presenta una lámina córnea de forma arqueada, a diferencia de la boga de río cuya lámina córnea es recta. Pedúnculo caudal largo y estrecho. Las aletas son largas, la dorsal tiene 8 radios ramificados y la anal de 8 a 10.</t>
         </is>
       </c>
@@ -705,6 +815,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Especie de talla media que no suele alcanzar los 500 mm de longitud total. Cuerpo alargado más que otras especies de ciprínidos. La abertura bucal es inferior y recta. El labio inferior es grueso y presenta una lámina córnea bien desarrollada. Las aletas dorsal y anal son largas, la primera de ellas tiene entre 8 y 9 radios ramificados y la segunda entre 8 y 9. Escamas pequeñas, en la línea lateral se cuentan entre 64 y 78. El número más frecuente de dientes faríngeos es de 6-5. No existe dimorfismo sexual marcado, aunque se han descrito algunas diferencias de tipo morfométrico relativas al tamaño de las aletas y longitud de la cabeza.</t>
         </is>
       </c>
@@ -717,6 +832,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Ciprínido de tamaño medio que no suele sobrepasar los 300 mm de longitud total. Cuerpo alargado con la cabeza relativamente pequeña y boca situada en su parte inferior. El labio inferior es grueso y presenta una lámina córnea de forma arqueada, a diferencia de la boga de río cuya lámina córnea es recta. Pedúnculo caudal largo y estrecho. Las aletas son largas, la dorsal tiene 8 radios ramificados y la anal de 8 a 10. Las escamas son grandes y su número es de 44-51. El número de branquiespinas es de 21 a 27. El número de dientes faríngeos más frecuente es de 6-5 y raramente 6-6.</t>
         </is>
       </c>
@@ -729,6 +849,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Especie de talla media que no suele alcanzar los 500 mm de longitud total. Cuerpo alargado más que otras especies de ciprínidos. La abertura bucal es inferior y recta. El labio inferior es grueso y presenta una lámina córnea bien desarrollada. La cabeza es más pequeña que en otras especies del genero Chondrostoma de boca arqueada. Las aletas dorsal y anal son largas, la primera de ellas tiene entre 8 y 9 radios ramificados y la segunda entre 8 y 9. Escamas pequeñas, en la línea lateral se cuentan entre 59 y 74. El número más frecuente de dientes faríngeos es de 7-6, aunque existen poblaciones con 6-6 dientes. No existe dimorfismo sexual marcado.</t>
         </is>
       </c>
@@ -741,6 +866,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Es una pequeña especie bentónica que no supera los 80 mm de longitud total, el cuerpo es cilíndrico y alargado con un pedúnculo caudal delgado y estrecho, la boca es ínfera y presenta tres pares de barbillas. Tiene una espina suborbitaria bífida eréctil que utiliza para defenderse de sus depredadores. La inserción de la aleta dorsal se sitúa un poco posterior al inicio de las ventrales. Presenta 7 radios ramificados en la aleta dorsal y de 6 a 7 en la anal. No aparece dimorfismo sexual externo. El cuerpo está cubierto con manchas negras que se disponen en 4 filas de las cuales la inferior es la que presenta unas manchas mayores rectangulares y ventralmente alargadas.</t>
         </is>
       </c>
@@ -753,6 +883,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>La colmilleja es una especie de pequeño tamaño que no suele alcanzar los 150 mm de longitud total. Su cuerpo es alargado con cuatro filas de manchas oscuras y redondeadas. La cabeza presenta pequeñas manchas oscuras y debajo del ojo existe una pequeña espina que le sirve par defenderse de los depredadores. La boca presenta tres pares de barbillas. Carece de vejiga natatoria. Las escamas son ovales muy pequeñas y apenas perceptibles a simple vista. La línea lateral es incompleta. Existe un dimorfismo sexual muy acusado. Los machos son de menor tamaño y las manchas laterales tienden a formar líneas bien definidas. En la base del segundo radio de las aletas pectorales de los machos aparece una lamina circular de la que carecen las hembras y que se denomina escama de canestrini.</t>
         </is>
       </c>
@@ -765,6 +900,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>La colmilleja del Alagón es una especie de pequeño tamaño que no suele alcanzar los 100 mm de longitud total. Existe un marcado dimorfismo sexual siendo los machos más pequeños que las hembras. Estos últimos presentan las aletas pectorales y ventrales más largas, en el segundo radio de las aletas pectorales existe una prolongación que asemeja una escama y que recibe el nombre de lamina circularis o escama de canestrini. Esta especie presenta cuatro filas de manchas oscuras en los laterales del cuerpo de forma redondeada en las hembras y juveniles y con tendencia a formar líneas continuas en los machos. Se diferencia de otras especies del género Cobitis por tener las seis barbillas bucales extremadamente cortas, a veces casi imperceptibles y unas aletas muy cortas.</t>
         </is>
       </c>
@@ -777,6 +917,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Pez de pequeño tamaño que no alcanza los 180 mm de longitud total. Cabeza grande y aplanada dorsalmente con una espina preopercular a cada lado. Presenta dos aletas dorsales y una anal larga que posee 11-13 radios. Las aletas pectorales son grandes y las ventrales se encuentran muy próximas. La aleta caudal tiene su borde distal convexo. Cuerpo desprovisto de escamas, con la línea lateral patente. La coloración es variable con manchas oscuras irregularmente repartidas por el cuerpo. La edad máxima registrad es de 5 años.</t>
         </is>
       </c>
@@ -789,6 +934,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>El espinoso es un pez muy pequeño, que no llega a superar los 50 mm de longitud total. El pedúnculo caudal es estrecho y su cabeza acaba en una boca súpera. Carece de escamas, pero presenta placas dorsales y laterales. La distinta disposición de estas últimas ha determinado la existencia de diferentes morfotipos. La primera aleta dorsal lleva tres radios espinosos. Las aletas ventrales y la anal tienen únicamente un radio espinoso. Existe dimorfismo sexual, ya que los machos en época de reproducción tienen una coloración rojiza en las partes inferiores del cuerpo, ofreciendo el dorso reflejos azul verdosos y plateados.</t>
         </is>
       </c>
@@ -801,6 +951,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Ciprínido de pequeño tamaño, que raramente supera los 150 mm de longitud. La forma de su cuerpo refleja su condición de pez de fondo con una parte ventral más o menos plana, un dorso convexo y la boca ínfera, con una barbilla a cada lado. El color del dorso es oscuro y en los flancos aparece una línea de manchas redondeadas y azuladas sobre un fondo más claro. La aleta dorsal y aleta caudal, fuertemente escotada, están irregularmente punteadas. Tiene entre 37 y 41 escamas en la línea lateral.</t>
         </is>
       </c>
@@ -813,6 +968,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Especie de pequeño tamaño que no supera los 200 mm de longitud total. Ventosa bucal con placa preoral ancha y dentículos orales. Cuerpo anguiliforme, sin escamas, con dos aletas dorsales unidas entre sí. No posee miembros pares. La coloración es clara con tonos amarillentos. Larva ammocoetes filtradora carente de pigmentación en la región ventral.</t>
         </is>
       </c>
@@ -825,6 +985,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>El tamaño de esta especie migradora es superior a 500 mm y puede alcanzar más de 1 m en la madurez, con pesos de 2 a 3 kg. Ventosa bucal con placa preoral pequeña y boca con odontoides agudos. Cuerpo cilíndrico, de color gris, gris-verdoso o pardo. Carece de aletas pares. Con siete pares de orificios branquiales visibles y un orificio nasal impar. Dos aletas dorsales. Posee una fase larvaria ciega (larva ammocoetes), pero a diferencia de la lamprea de arroyo, la larva tiene la región ventral pigmentada.</t>
         </is>
       </c>
@@ -837,6 +1002,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>El piscardo es un pez de pequeño tamaño que raramente alcanza los 140 mm de longitud total. Las aletas son cortas, teniendo la dorsal y anal entre 7-8 radios ramificados. Las escamas son pequeñas variando su número entre 80 y 90 en la línea longitudinal media. La coloración es variable y suele presentar manchas oscuras que se disponen transversalmente. Durante la época de reproducción los machos, presentan tubérculos nupciales, y la base de las aletas, excepto la dorsal, se tiñen de rojo. La coloración general en esta época suele ser más oscura. Son diploides y llegan a vivir hasta los 14 años.</t>
         </is>
       </c>
@@ -849,6 +1019,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Pez de pequeño tamaño que no suele alcanzar los 150 mm. Las aletas dorsal y anal son largas y recorren la mayor parte del cuerpo: la primera de ellas tiene 17-20 radios ramificados y las segunda 18-20. La aleta caudal tiene un perfil distal convexo. El cuerpo está desprovisto de escamas y la línea lateral es muy patente. Encima del ojo hay un pequeño tentáculo y la boca presenta dientes sobre las dos mandíbulas. En los machos hay una cresta cefálica muy desarrollada durante el periodo de celo. Coloración muy variable, con tendencia a presentar unas bandas trasversales oscuras. Es una especie diploide con 2N=48.</t>
         </is>
       </c>
@@ -861,6 +1036,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Especie de gran talla que puede alcanzar los 150 cm de longitud total y 45 kilos de peso máximo, sin embargo en España no suele alcanzar el metro de longitud y los 20 kilos de peso. La máxima edad encontrada es de 13 años. Posee una aleta adiposa en el dorso, entre la aleta dorsal y la caudal; las aletas pelvianas están en posición abdominal y los dientes mandibulares bien desarrollados. Cabeza más pequeña que la de la trucha. Vómer corto y sin dientes. Presentan un maxilar pequeño alcanzando solo a la mitad posterior del ojo. En los machos muy viejos, las mandíbulas pueden presentar una notable deformación ya que se encorvan por su extremo, la una hacia la otra. Pedúnculo caudal estrecho en su porción central. Escamas pequeñas en número de 120 a 130 en la línea lateral. A lo largo de su vida aparecen diferentes morfotipos a los que se asignan diferentes nombres. Al principio de su vida se les llama "pintos" al ser coloreados con manchas rojas. Cuando se van al mar empiezan a platear y en los flancos se ven unas manchas negras en forma de x; se les llama entonces "esguines". Cuando vuelven del mar ya maduros tienen el dorso azul-verdoso y el resto del cuerpo plateado viéndose en los opérculos y en los flancos unas manchas negras esparcidas de forma redondeada o de x; son los denominados "salmones". Una vez que se han reproducido pueden volver al mar arrastrados por la corriente; son los "zancados".</t>
         </is>
       </c>
@@ -873,6 +1053,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Pez de talla media que no suele superar los 100 cm de longitud total y 20 Kg de peso, aunque en España raramente alcanza los 60 cm y 10 Kg de peso. Su morfología es muy variable, la cabeza es grande provista de dientes que se extienden por los maxilares, premaxilares, dentarios, palatinos y vómer. Dos aletas dorsales, la primera con 9 a 11 radios ramificados y la segunda adiposa. Las escamas son muy pequeñas y su número es de 110-125 en la línea lateral. La coloración es variable, normalmente con manchas negras y rojas oceladas, que no están presentes en la aleta caudal y que se extienden por el opérculo. Son tetraploides con un numero 2n=80.</t>
         </is>
       </c>
@@ -885,6 +1070,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Es un taxón de pequeño tamaño que raramente alcanza los 130 mm de longitud total. La cabeza es pequeña y la boca súpera. El cuerpo es alargado con un pedúnculo caudal muy estrecho. Las aletas son pequeñas. La dorsal suele tener 7 radios ramificados y la anal de 8 a 9. Los perfiles distales de estas últimas son concavos. Las escamas son grandes y presentan un número de 38-44 en la línea lateral. El color del peritoneo es gris claro. Este taxon tiene un origen hibridogenético y los individuos son mayoritariamente hembras triploides ya que constan de tres dotaciones cromosómicas.</t>
         </is>
       </c>
@@ -897,6 +1087,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>El bordallo es un ciprínido de tamaño medio que raramente alcanza los 250 mm de longitud total. El cuerpo es alargado, la cabeza grande y con una boca subterminal. La aleta dorsal es larga con 8 radios ramificados y el perfil distal convexo. Los huesos circumorbitales son estrechos. Las escamas son grandes y su número en la línea lateral oscila entre 39 y 45.</t>
         </is>
       </c>
@@ -909,6 +1104,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Es un ciprínido de mayor tamaño que otras especies del género Squalius presentes en la Península Ibérica. Los ejemplares adultos alcanzan tallas de hasta 600 mm de longitud total y 8 Kg de peso, pudiendo vivir hasta los diez años. El cuerpo es alargado y presenta un pedúnculo caudal largo y estrecho. La cabeza es larga y ancha. El diámetro del ojo en los adultos es dos veces menor que la anchura interorbitaria. La boca es subterminal y la aleta dorsal se encuentra retrasada con respecto a la mitad del cuerpo. Los bordes distales de las aletas son convexos. Las escamas son más pequeñas que en otros Squalius de la Península Ibérica. La coloración del cuerpo es plateada uniformemente siendo en las aletas más oscura. En algunos ejemplares las aletas pelvianas y anal son rojizas.</t>
         </is>
       </c>
@@ -921,6 +1121,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Especie de tamaño medio cuya longitud total no excede de los 250 mm. La cabeza pequeña presenta una boca subterminal. El pedúnculo caudal es largo y estrecho. El origen de la dorsal está algo retrasado con respecto a la aleta ventral. Las escamas son pequeñas y su numero en la línea lateral oscila entre 53-55. El color es pardo y presenta una banda oscura que recorre el cuerpo longitudinalmente. El número de dientes faríngeos es de 5 o 6 y pueden estar dispuestos en una o dos filas.</t>
         </is>
       </c>
@@ -933,6 +1138,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>El cacho es un ciprínido de tamaño medio que no alcanza los 300 mm de longitud total. La cabeza es grande con la boca situada en posición súpera. La anchura de la cabeza es menor que en el bagre y los huesos circumorbitarios anchos a diferencia del bordallo. Las aletas dorsal y anal tienen los perfiles convexos. La base de las escamas está pigmentada de negro. La línea lateral está muy marcada y el número de escamas que posee varía entre 38 y 46.</t>
         </is>
       </c>
@@ -945,6 +1155,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Es una especie de pequeño tamaño que no alcanza los 200 mm de longitud total. De la misma familia que los populares caballitos de mar, la aguja de río presenta un aspecto parecido con el rostro en forma tubular y el cuerpo recubierto de placas articuladas. Las aletas son pequeñas, careciendo de las pelvianas. El cuerpo es extraordinariamente fino y alargado especialmente la región del pedúnculo caudal el cual acaba en una aleta en forma de abanico. El numero de anillos corporales es de 49 a 54 siendo de 14 a19 preanales, 6 a 10 debajo de la dorsal y 16 a 22 sobre la bolsa incubadora. La aleta dorsal tiene de 28 a 32 radios, la aleta anal 3, la pectoral de 13 a 14 y la caudal de 9 a 10. El ojo está comprendido 1,5 veces en el espacio preorbital.</t>
         </is>
       </c>
@@ -957,6 +1172,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Especie de talla media que puede alcanzar los 850 mm de longitud total y un peso máximo de 7.500 g. El cuerpo es alargado con un pedúnculo caudal corto y alto. Presenta un par de barbillas en las comisuras labiales. Las escamas son pequeñas siendo su número de 90 a 120 en la línea lateral. Las aletas dorsal y anal tienen sus bordes dístales convexos y la primera de ellas presenta 8-9 radios ramificados, mientras que la anal tiene 7-8. La coloración es verdosa aunque puede variar dependiendo del medio donde viva. Existen diferentes formas y coloraciones ya que se utiliza como especie ornamental en acuariofilia.</t>
         </is>
       </c>
@@ -968,6 +1188,11 @@
         </is>
       </c>
       <c r="B45" t="inlineStr">
+        <is>
+          <t>Inventario IEET - Peces</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Especie de pequeño tamaño que no suele alcanzar los 80 mm de longitud total. La aleta dorsal se encuentra a la misma altura que la aleta anal. La aleta dorsal presenta 10-11 radios ramificados y la anal de 12 a 14. La boca es súpera y lleva dientes unicúspides, en varias filas. Las escamas en la línea longitud media son de 20-30. Los machos son más pequeños, con la aleta dorsal algo más retrasada y su coloración es verde-azulada con manchas negras que tienden a ordenarse en forma de líneas transversales, el borde distal de las aletas dorsal y caudal son amarillas o anaranjadas. Las hembras tienen pequeños puntos negros repartidos irregularmente por el cuerpo.</t>
         </is>
